--- a/data/balance_sheet/3digits/total/920_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/920_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>920-Gambling and betting activities</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>920-Gambling and betting activities</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,12 +915,17 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
         <v>177305.27176</v>
@@ -1484,38 +934,43 @@
         <v>156298.88651</v>
       </c>
       <c r="E5" s="32" t="n">
-        <v>201218.95985</v>
+        <v>202366.92374</v>
       </c>
       <c r="F5" s="33" t="n">
-        <v>251906.9271</v>
+        <v>255213.85323</v>
       </c>
       <c r="G5" s="32" t="n">
-        <v>361965.51852</v>
+        <v>364435.90851</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>501255.72866</v>
+        <v>504560.16939</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>438129.14734</v>
+        <v>451457.01571</v>
       </c>
       <c r="J5" s="33" t="n">
-        <v>518186.56365</v>
+        <v>518232.08225</v>
       </c>
       <c r="K5" s="32" t="n">
         <v>702514.38737</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>945868.9103399999</v>
+        <v>947753.11702</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>857263.8577800001</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>785085.25184</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>6021399.609</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>147654.68053</v>
@@ -1524,78 +979,88 @@
         <v>124004.72368</v>
       </c>
       <c r="E6" s="23" t="n">
-        <v>168582.17134</v>
+        <v>169625.787</v>
       </c>
       <c r="F6" s="33" t="n">
-        <v>179055.22915</v>
+        <v>180419.39578</v>
       </c>
       <c r="G6" s="23" t="n">
-        <v>256732.97492</v>
+        <v>257143.0575</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>375686.3722400001</v>
+        <v>376279.52685</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>288825.9664100001</v>
+        <v>293744.19856</v>
       </c>
       <c r="J6" s="33" t="n">
-        <v>360656.69478</v>
+        <v>360659.76966</v>
       </c>
       <c r="K6" s="23" t="n">
         <v>486391.22739</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>636734.67272</v>
+        <v>637387.84363</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>403849.71774</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>404980.37036</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>848629.64</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
-        <v>5882.42554</v>
+        <v>5882.425540000001</v>
       </c>
       <c r="D7" s="22" t="n">
         <v>7484.23946</v>
       </c>
       <c r="E7" s="22" t="n">
-        <v>6819.03444</v>
+        <v>6819.034450000001</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>11779.02992</v>
+        <v>11792.31992</v>
       </c>
       <c r="G7" s="22" t="n">
-        <v>16335.02006</v>
+        <v>16455.87518</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>19624.20998</v>
+        <v>19630.1126</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>22950.29924</v>
+        <v>23360.76453</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>24885.7004</v>
+        <v>24888.77528</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>27336.46614</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>31690.03147</v>
+        <v>31970.30995</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>35220.17564</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>35933.21128</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>41129.138</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>1.53206</v>
@@ -1630,12 +1095,17 @@
       <c r="M8" s="22" t="n">
         <v>157.89669</v>
       </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+      <c r="N8" s="22" t="n">
+        <v>13596.29</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>141220.73807</v>
@@ -1644,19 +1114,19 @@
         <v>115469.36255</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>160085.55305</v>
+        <v>161129.1687</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>164261.21523</v>
+        <v>165569.17281</v>
       </c>
       <c r="G9" s="22" t="n">
-        <v>238913.53507</v>
+        <v>239195.6325</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>354715.55082</v>
+        <v>355302.80281</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>262599.52382</v>
+        <v>267106.19203</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>330837.9978700001</v>
@@ -1665,17 +1135,22 @@
         <v>452842.1177999999</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>599668.31002</v>
+        <v>600041.20245</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>363083.05233</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>363492.7435399999</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>786785.216</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>203.7342</v>
@@ -1687,7 +1162,7 @@
         <v>91.90454000000001</v>
       </c>
       <c r="F10" s="21" t="n">
-        <v>719.2001399999999</v>
+        <v>719.20014</v>
       </c>
       <c r="G10" s="22" t="n">
         <v>780.4821900000001</v>
@@ -1710,12 +1185,17 @@
       <c r="M10" s="22" t="n">
         <v>22.43106</v>
       </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+      <c r="N10" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>753.7190599999999</v>
@@ -1727,16 +1207,16 @@
         <v>1767.19606</v>
       </c>
       <c r="F11" s="21" t="n">
-        <v>3579.15333</v>
+        <v>3622.072380000001</v>
       </c>
       <c r="G11" s="22" t="n">
-        <v>2251.86025</v>
+        <v>2258.99028</v>
       </c>
       <c r="H11" s="21" t="n">
         <v>2567.84854</v>
       </c>
       <c r="I11" s="22" t="n">
-        <v>3392.5725</v>
+        <v>3393.67115</v>
       </c>
       <c r="J11" s="21" t="n">
         <v>4953.10419</v>
@@ -1748,14 +1228,19 @@
         <v>5611.50623</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>5411.02414</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>5418.94991</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>7118.996</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>1693.56616</v>
@@ -1764,7 +1249,7 @@
         <v>279.18681</v>
       </c>
       <c r="E12" s="23" t="n">
-        <v>476.2957</v>
+        <v>476.2957000000001</v>
       </c>
       <c r="F12" s="33" t="n">
         <v>16306.20493</v>
@@ -1773,10 +1258,10 @@
         <v>21850.01265</v>
       </c>
       <c r="H12" s="33" t="n">
-        <v>23592.45942</v>
+        <v>23592.45943</v>
       </c>
       <c r="I12" s="23" t="n">
-        <v>29506.75516</v>
+        <v>29607.19516</v>
       </c>
       <c r="J12" s="33" t="n">
         <v>545.2839300000001</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>119.74497</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>133.865</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>112.8363</v>
@@ -1853,7 +1348,7 @@
         <v>21412.11127</v>
       </c>
       <c r="H14" s="21" t="n">
-        <v>11103.46391</v>
+        <v>11103.46392</v>
       </c>
       <c r="I14" s="22" t="n">
         <v>629.6943100000001</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>1444.65545</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>136.07441</v>
@@ -1936,7 +1441,7 @@
         <v>488.99551</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>77.06085</v>
+        <v>177.50085</v>
       </c>
       <c r="J16" s="21" t="n">
         <v>0.1151</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>119.74497</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>133.865</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,12 +1500,17 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
         <v>7920.626869999999</v>
@@ -2007,16 +1522,16 @@
         <v>7340.034700000001</v>
       </c>
       <c r="F18" s="33" t="n">
-        <v>15152.34788</v>
+        <v>15317.09222</v>
       </c>
       <c r="G18" s="23" t="n">
-        <v>12604.01866</v>
+        <v>12820.77057</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>18501.77399</v>
+        <v>18862.94079</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>24455.40777</v>
+        <v>25524.89093</v>
       </c>
       <c r="J18" s="33" t="n">
         <v>30306.56571</v>
@@ -2025,17 +1540,22 @@
         <v>39838.10043</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>43365.55135</v>
+        <v>43509.06312</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>108000.42002</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>54414.35141999999</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>4568037.921</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>3807.81683</v>
@@ -2044,19 +1564,19 @@
         <v>3219.250199999999</v>
       </c>
       <c r="E19" s="22" t="n">
-        <v>4662.85158</v>
+        <v>4662.851580000001</v>
       </c>
       <c r="F19" s="21" t="n">
-        <v>10549.71446</v>
+        <v>10714.4588</v>
       </c>
       <c r="G19" s="22" t="n">
-        <v>7653.62951</v>
+        <v>7870.38142</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>11810.81987</v>
+        <v>12171.98667</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>15727.47309</v>
+        <v>16519.20348</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>19342.59781</v>
@@ -2065,17 +1585,22 @@
         <v>23490.55524</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>30958.35502</v>
+        <v>31063.26679</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>93675.91059</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>39991.30947</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>3674914.455</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
         <v>804.05108</v>
@@ -2096,10 +1621,10 @@
         <v>3092.07709</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>2872.25718</v>
+        <v>3042.25718</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>4582.28126</v>
+        <v>4582.281260000001</v>
       </c>
       <c r="K20" s="22" t="n">
         <v>9302.01756</v>
@@ -2110,12 +1635,17 @@
       <c r="M20" s="22" t="n">
         <v>3770.44763</v>
       </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+      <c r="N20" s="22" t="n">
+        <v>118742.975</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>0</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>324.51112</v>
@@ -2216,7 +1756,7 @@
         <v>1008.37982</v>
       </c>
       <c r="I23" s="22" t="n">
-        <v>1295.5438</v>
+        <v>1343.29657</v>
       </c>
       <c r="J23" s="21" t="n">
         <v>1385.24552</v>
@@ -2225,17 +1765,22 @@
         <v>1619.95292</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>2717.98844</v>
+        <v>2756.58844</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>3223.97005</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>3322.50257</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>4324.151</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>2984.24784</v>
@@ -2256,7 +1801,7 @@
         <v>2583.94721</v>
       </c>
       <c r="I24" s="22" t="n">
-        <v>4505.676699999999</v>
+        <v>4505.6767</v>
       </c>
       <c r="J24" s="21" t="n">
         <v>4942.53275</v>
@@ -2270,12 +1815,17 @@
       <c r="M24" s="22" t="n">
         <v>7243.963529999999</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>760701.844</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>2344.55104</v>
@@ -2296,7 +1846,7 @@
         <v>6.55</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>54.457</v>
+        <v>114.457</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>60.95237</v>
@@ -2310,12 +1860,17 @@
       <c r="M25" s="22" t="n">
         <v>134.83922</v>
       </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+      <c r="N25" s="22" t="n">
+        <v>9403.207</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>2344.55104</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>48.711</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>48.711</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>3595.04431</v>
@@ -2367,35 +1927,40 @@
         <v>2861.54623</v>
       </c>
       <c r="F27" s="33" t="n">
-        <v>13759.2047</v>
+        <v>14659.2047</v>
       </c>
       <c r="G27" s="23" t="n">
-        <v>24382.25326</v>
+        <v>24400.57912</v>
       </c>
       <c r="H27" s="33" t="n">
-        <v>24758.56078</v>
+        <v>24774.97591</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>15515.10085</v>
+        <v>16505.66527</v>
       </c>
       <c r="J27" s="33" t="n">
-        <v>24133.59424</v>
+        <v>24134.42245</v>
       </c>
       <c r="K27" s="23" t="n">
         <v>23217.61507</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>28393.08059000001</v>
+        <v>28404.08059</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>60022.06376</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>60106.26053</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>41661.913</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>3028.39294</v>
@@ -2407,7 +1972,7 @@
         <v>1103.10893</v>
       </c>
       <c r="F28" s="21" t="n">
-        <v>9411.58575</v>
+        <v>10311.58575</v>
       </c>
       <c r="G28" s="22" t="n">
         <v>18653.90626</v>
@@ -2416,10 +1981,10 @@
         <v>20418.65126</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>6614.4896</v>
+        <v>6938.498269999999</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>8811.510460000001</v>
+        <v>8811.51046</v>
       </c>
       <c r="K28" s="22" t="n">
         <v>7873.94105</v>
@@ -2428,14 +1993,19 @@
         <v>14386.31309</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>25470.79888</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>25525.7492</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>33624.778</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>9.01098</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>67.581</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>0</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>700</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>0</v>
@@ -2550,12 +2130,17 @@
       <c r="M31" s="22" t="n">
         <v>35.74103</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>34.33</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
         <v>566.65137</v>
@@ -2570,32 +2155,37 @@
         <v>4102.74963</v>
       </c>
       <c r="G32" s="22" t="n">
-        <v>5459.38213</v>
+        <v>5477.70799</v>
       </c>
       <c r="H32" s="21" t="n">
-        <v>4031.99868</v>
+        <v>4048.41381</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>8496.56551</v>
+        <v>9163.12126</v>
       </c>
       <c r="J32" s="21" t="n">
-        <v>14934.02532</v>
+        <v>14934.85353</v>
       </c>
       <c r="K32" s="22" t="n">
         <v>15003.76072</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>13599.48277</v>
+        <v>13610.48277</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>33806.51287</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>33835.75932</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>7935.224</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,52 +2310,62 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
-        <v>9379.153880000002</v>
+        <v>9379.15388</v>
       </c>
       <c r="D36" s="23" t="n">
         <v>12395.73898</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>14436.4555</v>
+        <v>14440.35209</v>
       </c>
       <c r="F36" s="33" t="n">
         <v>16338.37243</v>
       </c>
       <c r="G36" s="23" t="n">
-        <v>26734.42192</v>
+        <v>26808.10942</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>32098.27358</v>
+        <v>32108.77308</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>34954.03171</v>
+        <v>35693.35883</v>
       </c>
       <c r="J36" s="33" t="n">
         <v>48263.02182</v>
       </c>
       <c r="K36" s="23" t="n">
-        <v>61863.46886000001</v>
+        <v>61863.46886</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>81141.1387</v>
+        <v>81972.04311000001</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>103709.83654</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>104600.68258</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>133252.757</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
         <v>188.98722</v>
@@ -2773,7 +2383,7 @@
         <v>491.11638</v>
       </c>
       <c r="H37" s="21" t="n">
-        <v>819.13641</v>
+        <v>824.25141</v>
       </c>
       <c r="I37" s="22" t="n">
         <v>1710.12637</v>
@@ -2788,14 +2398,19 @@
         <v>2249.98295</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>1472.26026</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>1473.87933</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>2164.041</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>0</v>
@@ -2830,12 +2445,17 @@
       <c r="M38" s="22" t="n">
         <v>1593.70086</v>
       </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+      <c r="N38" s="22" t="n">
+        <v>589.833</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>0</v>
@@ -2870,12 +2490,17 @@
       <c r="M39" s="22" t="n">
         <v>6797.85302</v>
       </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+      <c r="N39" s="22" t="n">
+        <v>294.676</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
         <v>7949.57659</v>
@@ -2890,13 +2515,13 @@
         <v>13841.17715</v>
       </c>
       <c r="G40" s="22" t="n">
-        <v>22958.06398</v>
+        <v>23031.75148</v>
       </c>
       <c r="H40" s="21" t="n">
         <v>26718.63998</v>
       </c>
       <c r="I40" s="22" t="n">
-        <v>28758.84927</v>
+        <v>28941.26971</v>
       </c>
       <c r="J40" s="21" t="n">
         <v>37368.58205</v>
@@ -2905,17 +2530,22 @@
         <v>49445.94016</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>66296.05416</v>
+        <v>66806.3808</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>87428.90625999999</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>88318.13322999999</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>102102.071</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>203.45933</v>
@@ -2930,7 +2560,7 @@
         <v>457.79254</v>
       </c>
       <c r="G41" s="22" t="n">
-        <v>744.0178300000001</v>
+        <v>744.01783</v>
       </c>
       <c r="H41" s="21" t="n">
         <v>935.1998100000001</v>
@@ -2950,12 +2580,17 @@
       <c r="M41" s="22" t="n">
         <v>1534.93156</v>
       </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+      <c r="N41" s="22" t="n">
+        <v>17170.58</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>0</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>1037.13074</v>
@@ -3004,7 +2644,7 @@
         <v>826.6533900000001</v>
       </c>
       <c r="E43" s="22" t="n">
-        <v>579.8354600000001</v>
+        <v>583.7320500000001</v>
       </c>
       <c r="F43" s="21" t="n">
         <v>1255.24307</v>
@@ -3013,29 +2653,34 @@
         <v>1921.80815</v>
       </c>
       <c r="H43" s="21" t="n">
-        <v>2286.6668</v>
+        <v>2292.0513</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>1928.5683</v>
+        <v>2485.47498</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>5946.547210000001</v>
+        <v>5946.54721</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>7167.64332</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>5734.42527</v>
+        <v>6055.00304</v>
       </c>
       <c r="M43" s="22" t="n">
         <v>4882.18458</v>
       </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+      <c r="N43" s="22" t="n">
+        <v>10931.556</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>0</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>0</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>2767.37187</v>
@@ -3204,19 +2869,19 @@
         <v>3387.08781</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>3892.93708</v>
+        <v>3984.80155</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>4711.24955</v>
+        <v>4864.26549</v>
       </c>
       <c r="G48" s="46" t="n">
-        <v>4953.739890000001</v>
+        <v>4973.61886</v>
       </c>
       <c r="H48" s="45" t="n">
-        <v>5802.624150000001</v>
+        <v>5865.095350000001</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>8416.619120000001</v>
+        <v>8577.831689999999</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>11998.43374</v>
@@ -3228,14 +2893,19 @@
         <v>23400.3655</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>17654.83004</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>17711.05054</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>207893.245</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>1778.95519</v>
@@ -3244,22 +2914,22 @@
         <v>2276.13205</v>
       </c>
       <c r="E49" s="22" t="n">
-        <v>2283.86377</v>
+        <v>2283.86378</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>2386.00727</v>
+        <v>2388.31727</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>2895.71065</v>
+        <v>2902.12065</v>
       </c>
       <c r="H49" s="21" t="n">
-        <v>3674.84916</v>
+        <v>3674.95796</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>6253.32683</v>
+        <v>6262.80683</v>
       </c>
       <c r="J49" s="21" t="n">
-        <v>8612.613530000001</v>
+        <v>8612.613529999999</v>
       </c>
       <c r="K49" s="22" t="n">
         <v>8512.217339999999</v>
@@ -3268,35 +2938,40 @@
         <v>21346.1429</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>15580.3058</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>15636.5263</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>32540.642</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
-        <v>988.41668</v>
+        <v>988.4166799999999</v>
       </c>
       <c r="D50" s="22" t="n">
         <v>1110.95576</v>
       </c>
       <c r="E50" s="22" t="n">
-        <v>1609.07331</v>
+        <v>1700.93777</v>
       </c>
       <c r="F50" s="21" t="n">
-        <v>2325.242280000001</v>
+        <v>2475.94822</v>
       </c>
       <c r="G50" s="22" t="n">
-        <v>2058.02924</v>
+        <v>2071.49821</v>
       </c>
       <c r="H50" s="21" t="n">
-        <v>2127.77499</v>
+        <v>2190.13739</v>
       </c>
       <c r="I50" s="22" t="n">
-        <v>2163.292289999999</v>
+        <v>2315.02486</v>
       </c>
       <c r="J50" s="21" t="n">
         <v>3385.82021</v>
@@ -3310,52 +2985,62 @@
       <c r="M50" s="22" t="n">
         <v>2074.52424</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>175352.603</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>4294.82814</v>
       </c>
       <c r="D51" s="46" t="n">
-        <v>2907.01554</v>
+        <v>2907.015539999999</v>
       </c>
       <c r="E51" s="46" t="n">
-        <v>3258.600750000001</v>
+        <v>3267.18792</v>
       </c>
       <c r="F51" s="45" t="n">
-        <v>6584.318459999999</v>
+        <v>7309.31768</v>
       </c>
       <c r="G51" s="46" t="n">
-        <v>14605.24828</v>
+        <v>16336.91145</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>20815.6645</v>
+        <v>23076.39798</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>36455.26632</v>
+        <v>41803.87527</v>
       </c>
       <c r="J51" s="45" t="n">
-        <v>42282.96943</v>
+        <v>42324.58494</v>
       </c>
       <c r="K51" s="46" t="n">
-        <v>72620.84726000001</v>
+        <v>72620.84726</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>129875.30651</v>
+        <v>130120.9261</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>163907.24471</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>143152.79144</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>221790.268</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>1608.61921</v>
@@ -3367,35 +3052,40 @@
         <v>2532.17797</v>
       </c>
       <c r="F52" s="21" t="n">
-        <v>2705.24289</v>
+        <v>2732.74613</v>
       </c>
       <c r="G52" s="22" t="n">
-        <v>3813.86326</v>
+        <v>3870.3997</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>5043.66684</v>
+        <v>5048.034900000001</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>5787.801060000001</v>
+        <v>6108.76198</v>
       </c>
       <c r="J52" s="21" t="n">
-        <v>7293.317399999999</v>
+        <v>7332.579049999999</v>
       </c>
       <c r="K52" s="22" t="n">
         <v>8717.018269999999</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>10477.55838</v>
+        <v>10633.18851</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>15058.75572</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>15254.89957</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>62161.842</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>1.57286</v>
@@ -3430,12 +3120,17 @@
       <c r="M53" s="22" t="n">
         <v>868.56882</v>
       </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+      <c r="N53" s="22" t="n">
+        <v>284.519</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>0</v>
@@ -3470,12 +3165,17 @@
       <c r="M54" s="22" t="n">
         <v>29.29705</v>
       </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+      <c r="N54" s="22" t="n">
+        <v>20.045</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
         <v>169.4861</v>
@@ -3484,38 +3184,43 @@
         <v>108.86198</v>
       </c>
       <c r="E55" s="22" t="n">
-        <v>205.50234</v>
+        <v>205.52436</v>
       </c>
       <c r="F55" s="21" t="n">
-        <v>3264.86771</v>
+        <v>3953.87159</v>
       </c>
       <c r="G55" s="22" t="n">
-        <v>10050.2617</v>
+        <v>11720.3691</v>
       </c>
       <c r="H55" s="21" t="n">
-        <v>13816.03277</v>
+        <v>16071.94439</v>
       </c>
       <c r="I55" s="22" t="n">
-        <v>11095.83509</v>
+        <v>16114.10998</v>
       </c>
       <c r="J55" s="21" t="n">
-        <v>19279.12629</v>
+        <v>19281.48015</v>
       </c>
       <c r="K55" s="22" t="n">
         <v>26153.25602</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>31823.79439</v>
+        <v>31844.73158</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>37749.42759000001</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>16725.5682</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>54508.552</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>2208.19476</v>
@@ -3524,19 +3229,19 @@
         <v>406.70071</v>
       </c>
       <c r="E56" s="22" t="n">
-        <v>265.83953</v>
+        <v>271.40468</v>
       </c>
       <c r="F56" s="21" t="n">
-        <v>464.57319</v>
+        <v>472.64255</v>
       </c>
       <c r="G56" s="22" t="n">
-        <v>605.4593599999999</v>
+        <v>610.4786899999999</v>
       </c>
       <c r="H56" s="21" t="n">
         <v>1363.7515</v>
       </c>
       <c r="I56" s="22" t="n">
-        <v>2095.31347</v>
+        <v>2100.68661</v>
       </c>
       <c r="J56" s="21" t="n">
         <v>3665.80579</v>
@@ -3545,17 +3250,22 @@
         <v>3487.81198</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>5042.99557</v>
+        <v>5112.04784</v>
       </c>
       <c r="M56" s="22" t="n">
-        <v>608.61662</v>
-      </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+        <v>677.6688900000001</v>
+      </c>
+      <c r="N56" s="22" t="n">
+        <v>1597.065</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>306.95521</v>
@@ -3564,19 +3274,19 @@
         <v>313.19872</v>
       </c>
       <c r="E57" s="22" t="n">
-        <v>252.00461</v>
+        <v>255.00461</v>
       </c>
       <c r="F57" s="21" t="n">
-        <v>125.65895</v>
+        <v>126.08169</v>
       </c>
       <c r="G57" s="22" t="n">
         <v>76.40468</v>
       </c>
       <c r="H57" s="21" t="n">
-        <v>237.73257</v>
+        <v>238.18637</v>
       </c>
       <c r="I57" s="22" t="n">
-        <v>131.58637</v>
+        <v>135.58637</v>
       </c>
       <c r="J57" s="21" t="n">
         <v>121.91814</v>
@@ -3590,12 +3300,17 @@
       <c r="M57" s="22" t="n">
         <v>349.7271500000001</v>
       </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+      <c r="N57" s="22" t="n">
+        <v>610.303</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>0</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>17.188</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>17.188</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>0</v>
@@ -3668,13 +3388,18 @@
         <v>81940.25648000001</v>
       </c>
       <c r="M59" s="22" t="n">
-        <v>109225.66376</v>
-      </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+        <v>109229.87376</v>
+      </c>
+      <c r="N59" s="22" t="n">
+        <v>102590.754</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>0</v>
@@ -3709,12 +3434,17 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
         <v>26787.05938</v>
@@ -3723,38 +3453,43 @@
         <v>29721.5608</v>
       </c>
       <c r="E61" s="36" t="n">
-        <v>28375.02366</v>
+        <v>30700.90404</v>
       </c>
       <c r="F61" s="37" t="n">
-        <v>31195.27162</v>
+        <v>34102.47376</v>
       </c>
       <c r="G61" s="36" t="n">
-        <v>35458.29767</v>
+        <v>38627.70570000001</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>41532.66697</v>
+        <v>43162.66638</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>46684.11167</v>
+        <v>50338.31081999999</v>
       </c>
       <c r="J61" s="37" t="n">
-        <v>53259.86666</v>
+        <v>53260.88659</v>
       </c>
       <c r="K61" s="36" t="n">
         <v>62492.22867</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>65503.06746</v>
+        <v>66252.80524</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>104807.9142</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>105992.74886</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>2050406.755</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>2625.79018</v>
@@ -3772,7 +3507,7 @@
         <v>1904.31776</v>
       </c>
       <c r="H62" s="37" t="n">
-        <v>2340.8459</v>
+        <v>2464.06906</v>
       </c>
       <c r="I62" s="36" t="n">
         <v>2561.83905</v>
@@ -3784,17 +3519,22 @@
         <v>3055.73313</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>3656.19954</v>
+        <v>3754.29554</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>3438.09277</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>3638.941649999999</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>5574.35</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>2303.36008</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>1065</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>1092.609</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,12 +3704,17 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>322.4301</v>
@@ -3966,13 +3726,13 @@
         <v>492.05017</v>
       </c>
       <c r="F67" s="21" t="n">
-        <v>665.7989</v>
+        <v>665.7989000000001</v>
       </c>
       <c r="G67" s="22" t="n">
         <v>1351.28891</v>
       </c>
       <c r="H67" s="21" t="n">
-        <v>1604.22275</v>
+        <v>1727.44591</v>
       </c>
       <c r="I67" s="22" t="n">
         <v>1838.36344</v>
@@ -3984,17 +3744,22 @@
         <v>2126.84559</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>2394.08516</v>
+        <v>2492.18116</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>2373.09277</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>2573.94165</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>4481.741</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>152.46067</v>
@@ -4067,14 +3837,19 @@
         <v>1417.30464</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>649.29614</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>651.52307</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>1327.67</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>152.46067</v>
@@ -4107,14 +3882,19 @@
         <v>1166.97668</v>
       </c>
       <c r="M70" s="22" t="n">
-        <v>537.90226</v>
-      </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+        <v>540.12919</v>
+      </c>
+      <c r="N70" s="22" t="n">
+        <v>753.702</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>7.753</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>0</v>
@@ -4269,12 +4064,17 @@
       <c r="M74" s="22" t="n">
         <v>111.39388</v>
       </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+      <c r="N74" s="22" t="n">
+        <v>566.215</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>0</v>
@@ -4389,12 +4199,17 @@
       <c r="M77" s="23" t="n">
         <v>26893.95501</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>1317432.954</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>0</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,12 +4289,17 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>0</v>
@@ -4509,12 +4334,17 @@
       <c r="M80" s="22" t="n">
         <v>3187.171</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>1289222.17</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>1350</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>1350</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>0</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>32306.59101</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>32410.591</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>0</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>7249.807</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>2849.807</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,12 +4649,17 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
         <v>17747.63039</v>
@@ -4803,19 +4668,19 @@
         <v>15208.03347</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>14448.28024</v>
+        <v>14569.19109</v>
       </c>
       <c r="F88" s="33" t="n">
-        <v>16134.18667</v>
+        <v>16683.71278</v>
       </c>
       <c r="G88" s="23" t="n">
-        <v>18040.80233</v>
+        <v>18207.24417</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>18136.79003</v>
+        <v>18241.24847</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>18906.13402</v>
+        <v>21977.53595</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>21839.52505</v>
@@ -4824,17 +4689,22 @@
         <v>25715.82559</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>24938.43591</v>
+        <v>25051.08449</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>43932.86637</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>44130.13028</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>421944.149</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>0</v>
@@ -4869,12 +4739,17 @@
       <c r="M89" s="22" t="n">
         <v>857.74604</v>
       </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+      <c r="N89" s="22" t="n">
+        <v>14645.627</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>34.28766</v>
@@ -4909,12 +4784,17 @@
       <c r="M90" s="22" t="n">
         <v>1214.33977</v>
       </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+      <c r="N90" s="22" t="n">
+        <v>34.288</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>448.01347</v>
@@ -4935,7 +4815,7 @@
         <v>3235.31982</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>3183.56456</v>
+        <v>3523.56456</v>
       </c>
       <c r="J91" s="21" t="n">
         <v>5242.91127</v>
@@ -4947,14 +4827,19 @@
         <v>7560.71609</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>7662.7272</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>7680.70183</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>30199.854</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>43.69798</v>
@@ -4975,7 +4860,7 @@
         <v>4046.76659</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>1617.30772</v>
+        <v>4355.664970000001</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>4501.540660000001</v>
@@ -4987,14 +4872,19 @@
         <v>4487.789680000001</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>4583.945279999999</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>4583.94528</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>4615.674</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>1958.19113</v>
@@ -5006,16 +4896,16 @@
         <v>4066.71282</v>
       </c>
       <c r="F93" s="21" t="n">
-        <v>5750.634410000001</v>
+        <v>5778.495609999999</v>
       </c>
       <c r="G93" s="22" t="n">
-        <v>6594.19047</v>
+        <v>6677.551670000001</v>
       </c>
       <c r="H93" s="21" t="n">
         <v>7290.16201</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>7714.09184</v>
+        <v>8203.49</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>9494.760980000001</v>
@@ -5024,57 +4914,67 @@
         <v>10524.40146</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>10380.29385</v>
+        <v>10426.29385</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>10338.45207</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>10502.74472</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>25478.173</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>46612.80984</v>
       </c>
       <c r="D94" s="22" t="n">
-        <v>61740.00428</v>
+        <v>61740.00428000001</v>
       </c>
       <c r="E94" s="22" t="n">
-        <v>58067.0504</v>
+        <v>58191.97339</v>
       </c>
       <c r="F94" s="21" t="n">
-        <v>62529.46157999999</v>
+        <v>62741.2126</v>
       </c>
       <c r="G94" s="22" t="n">
-        <v>68618.81899</v>
+        <v>69632.56505999999</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>70555.65208</v>
+        <v>71749.23209</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>69434.72</v>
+        <v>71492.84791</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>73774.95017</v>
       </c>
       <c r="K94" s="22" t="n">
-        <v>78239.06323999999</v>
+        <v>78239.06324</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>81080.77259000001</v>
+        <v>81216.79336</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>63016.45144</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>63236.41316</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>479408.366</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>35.20065</v>
@@ -5109,33 +5009,38 @@
       <c r="M95" s="22" t="n">
         <v>78.65188000000001</v>
       </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+      <c r="N95" s="22" t="n">
+        <v>142.069</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
-        <v>31458.98883999999</v>
+        <v>31458.98884</v>
       </c>
       <c r="D96" s="22" t="n">
         <v>52173.53198000001</v>
       </c>
       <c r="E96" s="22" t="n">
-        <v>52045.17595</v>
+        <v>52099.32309000001</v>
       </c>
       <c r="F96" s="21" t="n">
-        <v>59487.20018</v>
+        <v>59613.64161999999</v>
       </c>
       <c r="G96" s="22" t="n">
-        <v>65387.9369</v>
+        <v>66318.60232999999</v>
       </c>
       <c r="H96" s="21" t="n">
-        <v>68836.77675</v>
+        <v>69925.89831999999</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>65941.21047000001</v>
+        <v>68495.69186000001</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>72738.97050999998</v>
@@ -5144,17 +5049,22 @@
         <v>77155.20608</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>80633.14794999998</v>
+        <v>80702.52013999998</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>49637.60167999999</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>49842.56677</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>141356.218</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>74.41849999999999</v>
@@ -5163,16 +5073,16 @@
         <v>377.3809</v>
       </c>
       <c r="E97" s="22" t="n">
-        <v>435.02039</v>
+        <v>485.15539</v>
       </c>
       <c r="F97" s="21" t="n">
-        <v>78.35922000000001</v>
+        <v>514.71455</v>
       </c>
       <c r="G97" s="22" t="n">
         <v>422.70703</v>
       </c>
       <c r="H97" s="21" t="n">
-        <v>740.7150399999999</v>
+        <v>740.71504</v>
       </c>
       <c r="I97" s="22" t="n">
         <v>1208.8415</v>
@@ -5189,12 +5099,17 @@
       <c r="M97" s="22" t="n">
         <v>4958.97015</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>8016.316</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
         <v>0</v>
@@ -5229,12 +5144,17 @@
       <c r="M98" s="22" t="n">
         <v>859.18422</v>
       </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+      <c r="N98" s="22" t="n">
+        <v>760</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>3576.56121</v>
@@ -5243,38 +5163,43 @@
         <v>8801.958419999999</v>
       </c>
       <c r="E99" s="23" t="n">
-        <v>7938.3605</v>
+        <v>10068.98517</v>
       </c>
       <c r="F99" s="33" t="n">
-        <v>7842.07711</v>
+        <v>10158.12764</v>
       </c>
       <c r="G99" s="23" t="n">
-        <v>8932.43252</v>
+        <v>11919.16625</v>
       </c>
       <c r="H99" s="33" t="n">
-        <v>9696.253070000001</v>
+        <v>11028.95364</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>11781.28923</v>
+        <v>12345.88687</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>12826.05697</v>
+        <v>12827.0769</v>
       </c>
       <c r="K99" s="23" t="n">
         <v>12466.39653</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>16251.12458</v>
+        <v>16254.49396</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>23214.86827</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>23463.52137</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>291500.588</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>2182.63185</v>
@@ -5283,19 +5208,19 @@
         <v>2437.56156</v>
       </c>
       <c r="E100" s="22" t="n">
-        <v>2513.72122</v>
+        <v>4487.35681</v>
       </c>
       <c r="F100" s="21" t="n">
-        <v>2041.91825</v>
+        <v>5711.58617</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>2348.08453</v>
+        <v>8891.66324</v>
       </c>
       <c r="H100" s="21" t="n">
-        <v>3329.29693</v>
+        <v>9887.03564</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>2830.370460000001</v>
+        <v>9396.736369999999</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>10100.0633</v>
@@ -5307,14 +5232,19 @@
         <v>11108.65036</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>16490.8033</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>16682.85839</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>18302.466</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>26.09978</v>
@@ -5349,18 +5279,23 @@
       <c r="M101" s="22" t="n">
         <v>74.53278</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>74.533</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>1168.60762</v>
       </c>
       <c r="D102" s="22" t="n">
-        <v>5395.104979999999</v>
+        <v>5395.10498</v>
       </c>
       <c r="E102" s="22" t="n">
         <v>5408.01712</v>
@@ -5369,32 +5304,37 @@
         <v>5468.237649999999</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>5465.935739999999</v>
+        <v>5467.47236</v>
       </c>
       <c r="H102" s="21" t="n">
         <v>5492.896940000001</v>
       </c>
       <c r="I102" s="22" t="n">
-        <v>5505.57388</v>
+        <v>5506.784720000001</v>
       </c>
       <c r="J102" s="21" t="n">
-        <v>5596.193810000001</v>
+        <v>5597.21374</v>
       </c>
       <c r="K102" s="22" t="n">
         <v>5638.32949</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>5551.41086</v>
+        <v>5554.78024</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>5510.42327</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>5550.49082</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>4872.589</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>75.31853</v>
@@ -5429,12 +5369,17 @@
       <c r="M103" s="22" t="n">
         <v>121.45625</v>
       </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+      <c r="N103" s="22" t="n">
+        <v>121.456</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>1281.39902</v>
@@ -5449,13 +5394,13 @@
         <v>2238.63771</v>
       </c>
       <c r="G104" s="22" t="n">
-        <v>3069.38468</v>
+        <v>3072.13894</v>
       </c>
       <c r="H104" s="21" t="n">
         <v>3304.79655</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>4347.82742</v>
+        <v>4362.75266</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>4391.87783</v>
@@ -5467,14 +5412,19 @@
         <v>6239.55414</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>8369.505380000001</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>8406.77708</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>8393.689</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>22184.53284</v>
@@ -5483,19 +5433,19 @@
         <v>7526.39942</v>
       </c>
       <c r="E105" s="22" t="n">
-        <v>7727.64569</v>
+        <v>9235.3035</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>8005.69444</v>
+        <v>9513.35225</v>
       </c>
       <c r="G105" s="22" t="n">
-        <v>9678.66264</v>
+        <v>10564.83191</v>
       </c>
       <c r="H105" s="21" t="n">
-        <v>11373.07824</v>
+        <v>12227.97179</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>15203.21642</v>
+        <v>16409.93017</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>19572.31218</v>
@@ -5507,14 +5457,19 @@
         <v>32450.08048</v>
       </c>
       <c r="M105" s="22" t="n">
-        <v>39745.34959000001</v>
-      </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+        <v>39745.34959</v>
+      </c>
+      <c r="N105" s="22" t="n">
+        <v>327773.653</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
         <v>23342.02843</v>
@@ -5523,19 +5478,19 @@
         <v>8424.976789999999</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>9680.703039999999</v>
+        <v>11031.37177</v>
       </c>
       <c r="F106" s="21" t="n">
-        <v>10059.96697</v>
+        <v>12921.24217</v>
       </c>
       <c r="G106" s="22" t="n">
-        <v>11777.52573</v>
+        <v>16224.83086</v>
       </c>
       <c r="H106" s="21" t="n">
-        <v>13951.70625</v>
+        <v>20031.63794</v>
       </c>
       <c r="I106" s="22" t="n">
-        <v>16281.68798</v>
+        <v>23506.30608</v>
       </c>
       <c r="J106" s="21" t="n">
         <v>27010.37918</v>
@@ -5547,14 +5502,19 @@
         <v>39294.56029</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>47097.2023</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>47117.94354000001</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>68037.798</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>0</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>5.0248</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>0</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>5.0248</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,12 +5819,17 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>2677.13271</v>
@@ -5843,19 +5838,19 @@
         <v>2980.04951</v>
       </c>
       <c r="E114" s="23" t="n">
-        <v>3187.20721</v>
+        <v>3261.55207</v>
       </c>
       <c r="F114" s="33" t="n">
-        <v>4284.9319</v>
+        <v>4326.557400000001</v>
       </c>
       <c r="G114" s="23" t="n">
-        <v>4105.90688</v>
+        <v>4122.13934</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>3885.80386</v>
+        <v>3955.4211</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>6099.043439999999</v>
+        <v>6115.285960000001</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>4935.93037</v>
@@ -5864,17 +5859,22 @@
         <v>3419.94626</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>3862.75059</v>
+        <v>3863.18317</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>3183.85674</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>3184.50734</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>8589.392</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>2677.13271</v>
@@ -5883,19 +5883,19 @@
         <v>2980.04951</v>
       </c>
       <c r="E115" s="22" t="n">
-        <v>3187.20721</v>
+        <v>3261.55207</v>
       </c>
       <c r="F115" s="21" t="n">
-        <v>4284.9319</v>
+        <v>4326.5574</v>
       </c>
       <c r="G115" s="22" t="n">
-        <v>4105.90688</v>
+        <v>4122.13934</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>3885.80386</v>
+        <v>3955.4211</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>6099.043439999999</v>
+        <v>6115.28596</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>4935.92856</v>
@@ -5904,17 +5904,22 @@
         <v>3419.78153</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>3862.75059</v>
+        <v>3863.18317</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>3163.43625</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>3164.08685</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>8572.365</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>20.42049</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>17.027</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>7.484220000000001</v>
@@ -5975,7 +5985,7 @@
         <v>75.36042999999999</v>
       </c>
       <c r="I117" s="23" t="n">
-        <v>92.76809</v>
+        <v>94.72515</v>
       </c>
       <c r="J117" s="33" t="n">
         <v>2977.22148</v>
@@ -5984,17 +5994,22 @@
         <v>2753.27111</v>
       </c>
       <c r="L117" s="23" t="n">
-        <v>3962.38057</v>
+        <v>4497.571809999999</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>3489.9541</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>4025.14534</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>4037.652</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.06647</v>
@@ -6027,14 +6042,19 @@
         <v>3.55398</v>
       </c>
       <c r="M118" s="22" t="n">
-        <v>3.828730000000001</v>
-      </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+        <v>3.82873</v>
+      </c>
+      <c r="N118" s="22" t="n">
+        <v>3.443</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>0</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>0.001</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>0</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>8.635590000000001</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>8.635999999999999</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>7.41775</v>
@@ -6175,7 +6210,7 @@
         <v>71.94063</v>
       </c>
       <c r="I122" s="22" t="n">
-        <v>89.53725999999999</v>
+        <v>91.49432</v>
       </c>
       <c r="J122" s="21" t="n">
         <v>105.74881</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>27.67397</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>46.505</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>0</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>344.7112</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>344.877</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>2.53115</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>8.635999999999999</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,17 +6399,22 @@
         <v>2384.41208</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>3518.31347</v>
+        <v>4053.50471</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>3107.63476</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>3642.826</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>3642.826</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>204092.33114</v>
@@ -6363,35 +6423,38 @@
         <v>186020.44731</v>
       </c>
       <c r="E127" s="23" t="n">
-        <v>229593.98351</v>
+        <v>233067.82778</v>
       </c>
       <c r="F127" s="33" t="n">
-        <v>283102.19872</v>
+        <v>289316.32699</v>
       </c>
       <c r="G127" s="23" t="n">
-        <v>397423.81619</v>
+        <v>403063.61421</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>542788.39563</v>
+        <v>547722.83577</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>484813.25901</v>
+        <v>501795.32653</v>
       </c>
       <c r="J127" s="33" t="n">
-        <v>571446.4303100001</v>
+        <v>571492.96884</v>
       </c>
       <c r="K127" s="23" t="n">
         <v>765006.61604</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>1011371.9778</v>
+        <v>1014005.92226</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>962071.77198</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>891078.0007000001</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>8071806.364</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>920-Gambling and betting activities</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,52 +6553,62 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>34500.42588</v>
       </c>
       <c r="D132" s="23" t="n">
-        <v>52382.71095</v>
+        <v>52382.71094999999</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>56543.95250999999</v>
+        <v>62861.48464</v>
       </c>
       <c r="F132" s="33" t="n">
-        <v>78988.69006000001</v>
+        <v>82191.64338000001</v>
       </c>
       <c r="G132" s="23" t="n">
-        <v>94603.64241</v>
+        <v>101511.77349</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>98490.50992</v>
+        <v>107589.04242</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>104091.53956</v>
+        <v>119250.77674</v>
       </c>
       <c r="J132" s="33" t="n">
-        <v>142448.6679</v>
+        <v>142479.19788</v>
       </c>
       <c r="K132" s="23" t="n">
         <v>220513.14928</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>279920.2882299999</v>
+        <v>280706.03305</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>406828.65538</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>332196.75002</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>2573668.872</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>2462.9585</v>
@@ -6535,38 +6617,43 @@
         <v>3666.44404</v>
       </c>
       <c r="E133" s="23" t="n">
-        <v>2040.54216</v>
+        <v>2932.65341</v>
       </c>
       <c r="F133" s="33" t="n">
-        <v>2713.47093</v>
+        <v>3132.38998</v>
       </c>
       <c r="G133" s="23" t="n">
-        <v>5177.15282</v>
+        <v>6104.35995</v>
       </c>
       <c r="H133" s="33" t="n">
-        <v>5604.560769999999</v>
+        <v>6459.70103</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>6885.85143</v>
+        <v>7333.60988</v>
       </c>
       <c r="J133" s="33" t="n">
-        <v>11687.44162</v>
+        <v>11687.44163</v>
       </c>
       <c r="K133" s="23" t="n">
         <v>10871.65434</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>15870.38406</v>
+        <v>15870.38407</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>15935.82481</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>15965.93399</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>1209487.52</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>1391.35609</v>
@@ -6581,32 +6668,37 @@
         <v>1937.38749</v>
       </c>
       <c r="G134" s="22" t="n">
-        <v>4409.22907</v>
+        <v>5230.91715</v>
       </c>
       <c r="H134" s="21" t="n">
-        <v>5033.846030000001</v>
+        <v>5882.76441</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>6488.849939999999</v>
+        <v>6930.890919999999</v>
       </c>
       <c r="J134" s="21" t="n">
-        <v>10926.5425</v>
+        <v>10926.54251</v>
       </c>
       <c r="K134" s="22" t="n">
         <v>10595.67051</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>12738.41878</v>
+        <v>12738.41879</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>13122.67452</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>13122.67453</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>1206960.26</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>924.83487</v>
@@ -6615,13 +6707,13 @@
         <v>890.8663399999999</v>
       </c>
       <c r="E135" s="22" t="n">
-        <v>249.46555</v>
+        <v>1223.71418</v>
       </c>
       <c r="F135" s="21" t="n">
-        <v>112.88515</v>
+        <v>558.49236</v>
       </c>
       <c r="G135" s="22" t="n">
-        <v>151.06865</v>
+        <v>253.17357</v>
       </c>
       <c r="H135" s="21" t="n">
         <v>113.32079</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>203.78656</v>
@@ -6655,13 +6752,13 @@
         <v>147.48334</v>
       </c>
       <c r="E136" s="22" t="n">
-        <v>49.62201</v>
+        <v>131.75939</v>
       </c>
       <c r="F136" s="21" t="n">
-        <v>41.75684</v>
+        <v>72.9755</v>
       </c>
       <c r="G136" s="22" t="n">
-        <v>31.05555</v>
+        <v>37.50541</v>
       </c>
       <c r="H136" s="21" t="n">
         <v>16.54381</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>350.5541000000001</v>
@@ -6721,12 +6823,17 @@
       <c r="M137" s="22" t="n">
         <v>2212.05581</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>2103.388</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,12 +7003,17 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
         <v>0</v>
@@ -6898,16 +7025,16 @@
         <v>2.90345</v>
       </c>
       <c r="F142" s="21" t="n">
-        <v>0</v>
+        <v>4.5305</v>
       </c>
       <c r="G142" s="22" t="n">
-        <v>2.4166</v>
+        <v>12.28059</v>
       </c>
       <c r="H142" s="21" t="n">
-        <v>25.43179</v>
+        <v>31.65367</v>
       </c>
       <c r="I142" s="22" t="n">
-        <v>76.535</v>
+        <v>82.25247</v>
       </c>
       <c r="J142" s="21" t="n">
         <v>199.54727</v>
@@ -6919,14 +7046,19 @@
         <v>159.04295</v>
       </c>
       <c r="M142" s="22" t="n">
-        <v>601.09448</v>
-      </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+        <v>631.20365</v>
+      </c>
+      <c r="N142" s="22" t="n">
+        <v>423.872</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>16893.55534</v>
@@ -6935,38 +7067,43 @@
         <v>23681.60155</v>
       </c>
       <c r="E143" s="46" t="n">
-        <v>24841.22542</v>
+        <v>26062.3237</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>44858.77469</v>
+        <v>46751.12844</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>43343.07922</v>
+        <v>46798.04569</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>47165.82568000001</v>
+        <v>51758.41310000001</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>51454.79459999999</v>
+        <v>57540.19345999999</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>66547.10386</v>
+        <v>66571.47929</v>
       </c>
       <c r="K143" s="46" t="n">
         <v>130629.0705</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>177220.87899</v>
+        <v>177626.06617</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>165166.75833</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>165370.08721</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>717729.503</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>9754.693359999999</v>
@@ -6975,38 +7112,43 @@
         <v>14806.73636</v>
       </c>
       <c r="E144" s="25" t="n">
-        <v>16806.07861</v>
+        <v>18027.17689</v>
       </c>
       <c r="F144" s="24" t="n">
-        <v>33352.62315</v>
+        <v>35244.9769</v>
       </c>
       <c r="G144" s="25" t="n">
-        <v>29165.95731</v>
+        <v>32620.92378</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>35117.47951999999</v>
+        <v>39709.47594</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>37731.44056</v>
+        <v>43805.58512999999</v>
       </c>
       <c r="J144" s="24" t="n">
-        <v>44183.07305</v>
+        <v>44183.07306</v>
       </c>
       <c r="K144" s="25" t="n">
         <v>80718.31086</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>64872.77191</v>
+        <v>65247.17346</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>125052.72358</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>125254.15246</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>438426.752</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>12.83995</v>
@@ -7041,12 +7183,17 @@
       <c r="M145" s="25" t="n">
         <v>1326.95574</v>
       </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+      <c r="N145" s="25" t="n">
+        <v>201465.329</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
         <v>0</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>0</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>0</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>2557.63125</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>124.557</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>7126.02203</v>
@@ -7144,29 +7301,34 @@
         <v>13224.87678</v>
       </c>
       <c r="H148" s="24" t="n">
-        <v>11083.33125</v>
+        <v>11083.92225</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>12227.70534</v>
+        <v>12238.95963</v>
       </c>
       <c r="J148" s="24" t="n">
-        <v>19244.33876</v>
+        <v>19268.71418</v>
       </c>
       <c r="K148" s="25" t="n">
         <v>42275.96883</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>29002.95623</v>
+        <v>29033.74186</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>36229.44776</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>36231.34776</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>77712.86500000001</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>4047.07701</v>
@@ -7175,38 +7337,43 @@
         <v>9913.911739999998</v>
       </c>
       <c r="E149" s="23" t="n">
-        <v>8829.74417</v>
+        <v>12249.60773</v>
       </c>
       <c r="F149" s="33" t="n">
-        <v>8711.548559999999</v>
+        <v>8923.47911</v>
       </c>
       <c r="G149" s="23" t="n">
-        <v>14578.4577</v>
+        <v>16363.3424</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>10980.74762</v>
+        <v>13817.67944</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>11742.04215</v>
+        <v>17081.25297</v>
       </c>
       <c r="J149" s="33" t="n">
-        <v>23268.15372</v>
+        <v>23274.92146</v>
       </c>
       <c r="K149" s="23" t="n">
         <v>33527.02744</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>33745.89747</v>
+        <v>34070.47096</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>80353.63538999998</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>81116.24403</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>54984.898</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>3856.05097</v>
@@ -7215,38 +7382,43 @@
         <v>8647.449189999999</v>
       </c>
       <c r="E150" s="22" t="n">
-        <v>7155.3331</v>
+        <v>9871.04219</v>
       </c>
       <c r="F150" s="21" t="n">
-        <v>6438.612260000001</v>
+        <v>6439.52238</v>
       </c>
       <c r="G150" s="22" t="n">
-        <v>10257.83242</v>
+        <v>10305.33242</v>
       </c>
       <c r="H150" s="21" t="n">
         <v>9109.736530000002</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>10014.4931</v>
+        <v>10336.91846</v>
       </c>
       <c r="J150" s="21" t="n">
-        <v>19579.12031</v>
+        <v>19585.88805</v>
       </c>
       <c r="K150" s="22" t="n">
         <v>29105.58067</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>29342.72003</v>
+        <v>29660.88257</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>36004.88672</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>36744.59724</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>41705.7</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>7</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>2000.43425</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>2000.434</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7321,12 +7498,17 @@
       <c r="M152" s="22" t="n">
         <v>1745.6769</v>
       </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+      <c r="N152" s="22" t="n">
+        <v>2502.276</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>67.65804000000001</v>
@@ -7341,13 +7523,13 @@
         <v>192.97045</v>
       </c>
       <c r="G153" s="22" t="n">
-        <v>190.54928</v>
+        <v>193.31755</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>141.61673</v>
+        <v>218.87873</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>349.292</v>
+        <v>398.4641</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>859.67129</v>
@@ -7359,14 +7541,19 @@
         <v>1741.60934</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>1332.59945</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>1348.60298</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>1306.597</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>116.368</v>
@@ -7375,38 +7562,43 @@
         <v>1152.11107</v>
       </c>
       <c r="E154" s="22" t="n">
-        <v>1489.77399</v>
+        <v>2193.92846</v>
       </c>
       <c r="F154" s="21" t="n">
-        <v>2079.07259</v>
+        <v>2290.093019999999</v>
       </c>
       <c r="G154" s="22" t="n">
-        <v>4130.076</v>
+        <v>5864.69243</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>1729.39436</v>
+        <v>4489.064179999999</v>
       </c>
       <c r="I154" s="22" t="n">
-        <v>1349.65201</v>
+        <v>6317.26537</v>
       </c>
       <c r="J154" s="21" t="n">
-        <v>2800.75708</v>
+        <v>2800.757079999999</v>
       </c>
       <c r="K154" s="22" t="n">
         <v>3566.19748</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>2661.5681</v>
+        <v>2667.97905</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>39270.03807</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>39276.93266000001</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>7469.891</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,12 +7633,17 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>367.43455</v>
@@ -7455,19 +7652,19 @@
         <v>956.6463</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>1406.39188</v>
+        <v>1909.39284</v>
       </c>
       <c r="F156" s="33" t="n">
-        <v>3690.00438</v>
+        <v>4252.522640000001</v>
       </c>
       <c r="G156" s="23" t="n">
-        <v>7409.21394</v>
+        <v>7957.008890000001</v>
       </c>
       <c r="H156" s="33" t="n">
-        <v>6800.68305</v>
+        <v>7341.736779999999</v>
       </c>
       <c r="I156" s="23" t="n">
-        <v>7998.04292</v>
+        <v>9592.941210000001</v>
       </c>
       <c r="J156" s="33" t="n">
         <v>11875.87667</v>
@@ -7476,17 +7673,22 @@
         <v>13712.68205</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>23095.00599</v>
+        <v>23100.42599</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>101932.43885</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>47375.1467</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>76279.50599999999</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>359.04105</v>
@@ -7495,19 +7697,19 @@
         <v>903.5271000000001</v>
       </c>
       <c r="E157" s="22" t="n">
-        <v>669.13377</v>
+        <v>1172.13473</v>
       </c>
       <c r="F157" s="21" t="n">
-        <v>3002.08766</v>
+        <v>3564.60592</v>
       </c>
       <c r="G157" s="22" t="n">
-        <v>7374.72946</v>
+        <v>7922.52441</v>
       </c>
       <c r="H157" s="21" t="n">
-        <v>6624.071569999999</v>
+        <v>7165.125299999999</v>
       </c>
       <c r="I157" s="22" t="n">
-        <v>7121.26228</v>
+        <v>8716.16057</v>
       </c>
       <c r="J157" s="21" t="n">
         <v>10734.06739</v>
@@ -7516,17 +7718,22 @@
         <v>10686.36164</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>23076.54485</v>
+        <v>23081.96485</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>101918.27114</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>47360.97899</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>76279.50599999999</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>8.3935</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>14.16771</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>0</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>0</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>1868.64595</v>
@@ -7695,38 +7922,43 @@
         <v>2570.85503</v>
       </c>
       <c r="E162" s="23" t="n">
-        <v>3483.51536</v>
+        <v>3557.07363</v>
       </c>
       <c r="F162" s="33" t="n">
-        <v>3723.80014</v>
+        <v>3795.6317</v>
       </c>
       <c r="G162" s="23" t="n">
-        <v>5660.104609999999</v>
+        <v>5775.07124</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>7239.667560000001</v>
+        <v>7413.73853</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>6991.62071</v>
+        <v>7939.57226</v>
       </c>
       <c r="J162" s="33" t="n">
-        <v>10764.04361</v>
+        <v>10763.43041</v>
       </c>
       <c r="K162" s="23" t="n">
         <v>11098.56477</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>12747.22053</v>
+        <v>12797.78458</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>12010.96613</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>12103.42792</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>37176.173</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>1400.54264</v>
@@ -7735,38 +7967,43 @@
         <v>1973.04424</v>
       </c>
       <c r="E163" s="22" t="n">
-        <v>2494.11994</v>
+        <v>2524.55316</v>
       </c>
       <c r="F163" s="21" t="n">
-        <v>2832.62055</v>
+        <v>2877.35996</v>
       </c>
       <c r="G163" s="22" t="n">
-        <v>4216.98138</v>
+        <v>4278.02134</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>4823.50017</v>
+        <v>4926.38681</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>4121.92871</v>
+        <v>4949.79994</v>
       </c>
       <c r="J163" s="21" t="n">
-        <v>6021.81089</v>
+        <v>6021.197689999999</v>
       </c>
       <c r="K163" s="22" t="n">
         <v>5805.08474</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>7038.966409999999</v>
+        <v>7052.933349999999</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>6263.88586</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>6305.3162</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>29076.467</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>391.577</v>
@@ -7775,19 +8012,19 @@
         <v>432.42016</v>
       </c>
       <c r="E164" s="22" t="n">
-        <v>792.39851</v>
+        <v>835.5235600000001</v>
       </c>
       <c r="F164" s="21" t="n">
-        <v>601.09702</v>
+        <v>628.18917</v>
       </c>
       <c r="G164" s="22" t="n">
-        <v>816.9642700000001</v>
+        <v>870.89094</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>1024.12306</v>
+        <v>1095.30739</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>1153.18392</v>
+        <v>1273.26424</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>2334.27449</v>
@@ -7796,17 +8033,22 @@
         <v>2846.02056</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>2572.76154</v>
+        <v>2584.15343</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>3104.96333</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>3121.19514</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>4616.483</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>76.52631</v>
@@ -7836,17 +8078,22 @@
         <v>2446.14102</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>3107.85107</v>
+        <v>3133.05629</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>2625.86079</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>2658.69652</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>3423.885</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>0</v>
@@ -7879,14 +8126,19 @@
         <v>27.64151</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>16.25615</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>18.22006</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>59.338</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
         <v>2047.46761</v>
@@ -7907,7 +8159,7 @@
         <v>6205.584890000001</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>6472.340619999999</v>
+        <v>7116.40833</v>
       </c>
       <c r="J167" s="33" t="n">
         <v>8928.78224</v>
@@ -7916,17 +8168,22 @@
         <v>9534.57559</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>3914.74347</v>
+        <v>3914.74356</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>23035.75543</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>1871.94066</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>8286.402</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>11177.31557</v>
@@ -7938,16 +8195,16 @@
         <v>13318.60507</v>
       </c>
       <c r="F168" s="21" t="n">
-        <v>19678.54085</v>
+        <v>19689.09481</v>
       </c>
       <c r="G168" s="22" t="n">
-        <v>26498.3449</v>
+        <v>26508.92711</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>29372.41928</v>
+        <v>29377.39057</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>32848.109</v>
+        <v>33537.34543</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>34890.55412</v>
@@ -7956,20 +8213,25 @@
         <v>70539.36673000001</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>109387.3018</v>
+        <v>109462.58847</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>105951.10467</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>106000.93428</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>130378.206</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
-        <v>9129.847960000001</v>
+        <v>9129.847959999999</v>
       </c>
       <c r="D169" s="22" t="n">
         <v>3922.21215</v>
@@ -7978,16 +8240,16 @@
         <v>9371.55888</v>
       </c>
       <c r="F169" s="21" t="n">
-        <v>14874.51439</v>
+        <v>14885.06835</v>
       </c>
       <c r="G169" s="22" t="n">
-        <v>21156.63942</v>
+        <v>21167.22163</v>
       </c>
       <c r="H169" s="21" t="n">
-        <v>23166.83439</v>
+        <v>23171.80568</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>26812.53618</v>
+        <v>26857.70489999999</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>26245.15044</v>
@@ -7996,17 +8258,22 @@
         <v>61318.43814</v>
       </c>
       <c r="L169" s="22" t="n">
-        <v>105853.53267</v>
+        <v>105928.81925</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>83121.65075000002</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>104335.29513</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>124078.63</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>206.30151</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>206.302</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>0</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>287.138</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>0</v>
@@ -8121,33 +8398,38 @@
       <c r="M172" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>1493.386</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
         <v>6723.32392</v>
       </c>
       <c r="D173" s="23" t="n">
-        <v>9301.77677</v>
+        <v>9301.776770000002</v>
       </c>
       <c r="E173" s="23" t="n">
-        <v>11995.21733</v>
+        <v>12203.11714</v>
       </c>
       <c r="F173" s="33" t="n">
-        <v>10486.38424</v>
+        <v>10531.78439</v>
       </c>
       <c r="G173" s="23" t="n">
-        <v>13076.05072</v>
+        <v>13154.36192</v>
       </c>
       <c r="H173" s="33" t="n">
-        <v>14352.95981</v>
+        <v>14451.70811</v>
       </c>
       <c r="I173" s="23" t="n">
-        <v>12546.77321</v>
+        <v>12646.72471</v>
       </c>
       <c r="J173" s="33" t="n">
         <v>9376.028469999999</v>
@@ -8159,14 +8441,19 @@
         <v>13257.74336</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>8317.234769999999</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>8317.234770000001</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>469510.674</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>0.418</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>40.97653999999999</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>1.366</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>6722.90592</v>
@@ -8215,22 +8507,22 @@
         <v>9286.121640000001</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>11605.79434</v>
+        <v>11813.69415</v>
       </c>
       <c r="F175" s="21" t="n">
-        <v>10410.17098</v>
+        <v>10455.57113</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>12646.57266</v>
+        <v>12724.88386</v>
       </c>
       <c r="H175" s="21" t="n">
-        <v>14081.1973</v>
+        <v>14179.9456</v>
       </c>
       <c r="I175" s="22" t="n">
-        <v>12093.57701</v>
+        <v>12193.52851</v>
       </c>
       <c r="J175" s="21" t="n">
-        <v>8509.623229999999</v>
+        <v>8509.623230000001</v>
       </c>
       <c r="K175" s="22" t="n">
         <v>10587.15097</v>
@@ -8241,12 +8533,17 @@
       <c r="M175" s="22" t="n">
         <v>8276.258230000001</v>
       </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+      <c r="N175" s="22" t="n">
+        <v>469509.308</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>89.96299999999999</v>
@@ -8279,14 +8576,19 @@
         <v>68.41436</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>76.04167</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>76.73474</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>214.196</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>0</v>
@@ -8319,14 +8621,19 @@
         <v>48.48511</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>76.04167</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>76.73474</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>212.067</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>0</v>
@@ -8361,12 +8668,17 @@
       <c r="M178" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+      <c r="N178" s="22" t="n">
+        <v>2.129</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>0</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>89.96299999999999</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>25890.52706</v>
@@ -8495,41 +8822,46 @@
         <v>33910.49889</v>
       </c>
       <c r="E182" s="23" t="n">
-        <v>42449.75917999999</v>
+        <v>42449.75918</v>
       </c>
       <c r="F182" s="33" t="n">
-        <v>42345.63790000001</v>
+        <v>42438.54175</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>49434.97961000001</v>
+        <v>49827.87543000001</v>
       </c>
       <c r="H182" s="33" t="n">
-        <v>52299.95146000001</v>
+        <v>52759.08031</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>65317.99412999999</v>
+        <v>66598.89079</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>74722.05216999998</v>
       </c>
       <c r="K182" s="23" t="n">
-        <v>84066.19758000001</v>
+        <v>84066.19757999999</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>21871.48408</v>
+        <v>21871.48409</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>19554.64183</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>19614.48926</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>7919394.331</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
-        <v>911.4121799999999</v>
+        <v>911.41218</v>
       </c>
       <c r="D183" s="23" t="n">
         <v>1551.18324</v>
@@ -8541,13 +8873,13 @@
         <v>1912.78804</v>
       </c>
       <c r="G183" s="23" t="n">
-        <v>3004.17051</v>
+        <v>3251.96273</v>
       </c>
       <c r="H183" s="33" t="n">
-        <v>4005.65001</v>
+        <v>4129.28256</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>3021.45034</v>
+        <v>3534.58953</v>
       </c>
       <c r="J183" s="33" t="n">
         <v>2485.49615</v>
@@ -8559,14 +8891,19 @@
         <v>7400.82423</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>7116.463710000001</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>7116.46371</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>7833599.779</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>447.06282</v>
@@ -8587,7 +8924,7 @@
         <v>4005.65001</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>2849.65193</v>
+        <v>3162.58357</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>2485.49615</v>
@@ -8599,14 +8936,19 @@
         <v>7400.82423</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>7116.463710000001</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>7116.46371</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>7608599.779</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>622.9779100000001</v>
@@ -8621,13 +8963,13 @@
         <v>347.39544</v>
       </c>
       <c r="G185" s="22" t="n">
-        <v>113.32079</v>
+        <v>371.33204</v>
       </c>
       <c r="H185" s="21" t="n">
-        <v>0</v>
+        <v>131.97188</v>
       </c>
       <c r="I185" s="22" t="n">
-        <v>118.13523</v>
+        <v>333.47804</v>
       </c>
       <c r="J185" s="21" t="n">
         <v>0</v>
@@ -8641,12 +8983,17 @@
       <c r="M185" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+      <c r="N185" s="22" t="n">
+        <v>415772.853</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>158.62855</v>
@@ -8661,13 +9008,13 @@
         <v>57.90101</v>
       </c>
       <c r="G186" s="22" t="n">
-        <v>16.54381</v>
+        <v>26.76284</v>
       </c>
       <c r="H186" s="21" t="n">
-        <v>0</v>
+        <v>8.33933</v>
       </c>
       <c r="I186" s="22" t="n">
-        <v>0.75239</v>
+        <v>15.88765</v>
       </c>
       <c r="J186" s="21" t="n">
         <v>0</v>
@@ -8681,12 +9028,17 @@
       <c r="M186" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="N186" s="22" t="n">
+        <v>190772.853</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>0</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>22902.95504</v>
@@ -8881,12 +9253,17 @@
       <c r="M191" s="23" t="n">
         <v>724.1058</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>44653.418</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>36.47226999999999</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>0</v>
@@ -8961,12 +9343,17 @@
       <c r="M193" s="22" t="n">
         <v>22.246</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>22866.48277</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>701.8598000000001</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>44653.418</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>0</v>
@@ -9081,12 +9478,17 @@
       <c r="M196" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>1622.20116</v>
@@ -9107,26 +9509,31 @@
         <v>2563.25331</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>3842.09545</v>
+        <v>4148.63151</v>
       </c>
       <c r="J197" s="33" t="n">
         <v>3721.64084</v>
       </c>
       <c r="K197" s="23" t="n">
-        <v>5658.990640000001</v>
+        <v>5658.99064</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>6734.46359</v>
+        <v>6734.4636</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>10042.10023</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>10101.94766</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>39230.437</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>1573.14215</v>
@@ -9147,7 +9554,7 @@
         <v>2414.76499</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>3353.46437</v>
+        <v>3660.00043</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>3292.9132</v>
@@ -9156,17 +9563,22 @@
         <v>5316.28946</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>6248.22436</v>
+        <v>6248.22437</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>9547.25959</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>9607.107019999999</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>11491.172</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,12 +9658,17 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
         <v>0</v>
@@ -9281,12 +9703,17 @@
       <c r="M201" s="22" t="n">
         <v>476.41141</v>
       </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+      <c r="N201" s="22" t="n">
+        <v>27662.512</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>49.05901</v>
@@ -9361,12 +9793,17 @@
       <c r="M203" s="22" t="n">
         <v>18.42923</v>
       </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+      <c r="N203" s="22" t="n">
+        <v>76.753</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>0</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>0</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>381.10089</v>
@@ -9498,16 +9950,16 @@
         <v>1018.61728</v>
       </c>
       <c r="F207" s="33" t="n">
-        <v>1186.73341</v>
+        <v>1279.63726</v>
       </c>
       <c r="G207" s="23" t="n">
-        <v>1437.38036</v>
+        <v>1582.48396</v>
       </c>
       <c r="H207" s="33" t="n">
-        <v>1385.63129</v>
+        <v>1721.12759</v>
       </c>
       <c r="I207" s="23" t="n">
-        <v>4546.21482</v>
+        <v>5007.43623</v>
       </c>
       <c r="J207" s="33" t="n">
         <v>5808.60941</v>
@@ -9516,17 +9968,22 @@
         <v>6325.4725</v>
       </c>
       <c r="L207" s="23" t="n">
-        <v>7413.821720000001</v>
+        <v>7413.82172</v>
       </c>
       <c r="M207" s="23" t="n">
         <v>1620.35028</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>1896.332</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>381.10089</v>
@@ -9538,16 +9995,16 @@
         <v>681.2782900000001</v>
       </c>
       <c r="F208" s="21" t="n">
-        <v>860.36103</v>
+        <v>953.2648799999999</v>
       </c>
       <c r="G208" s="22" t="n">
-        <v>1076.81763</v>
+        <v>1221.92123</v>
       </c>
       <c r="H208" s="21" t="n">
-        <v>1385.63129</v>
+        <v>1721.12759</v>
       </c>
       <c r="I208" s="22" t="n">
-        <v>4546.21482</v>
+        <v>5007.43623</v>
       </c>
       <c r="J208" s="21" t="n">
         <v>5808.60941</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>1620.35028</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>1896.332</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>72.85778999999999</v>
@@ -9621,7 +10088,7 @@
         <v>150.99259</v>
       </c>
       <c r="G210" s="23" t="n">
-        <v>55.43992000000001</v>
+        <v>55.43992</v>
       </c>
       <c r="H210" s="33" t="n">
         <v>26.44811</v>
@@ -9641,12 +10108,17 @@
       <c r="M210" s="23" t="n">
         <v>51.62181</v>
       </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+      <c r="N210" s="23" t="n">
+        <v>14.191</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>72.5</v>
@@ -9661,7 +10133,7 @@
         <v>150.99259</v>
       </c>
       <c r="G211" s="22" t="n">
-        <v>55.43992000000001</v>
+        <v>55.43992</v>
       </c>
       <c r="H211" s="21" t="n">
         <v>26.44811</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>1.22034</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>0.35779</v>
@@ -9721,12 +10198,17 @@
       <c r="M212" s="22" t="n">
         <v>50.40147</v>
       </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+      <c r="N212" s="22" t="n">
+        <v>14.191</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>0</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>0</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>0.174</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>143701.3782</v>
@@ -9895,78 +10397,88 @@
         <v>99727.23746999999</v>
       </c>
       <c r="E217" s="23" t="n">
-        <v>130600.27182</v>
+        <v>127756.58396</v>
       </c>
       <c r="F217" s="33" t="n">
-        <v>161767.87076</v>
+        <v>164686.14186</v>
       </c>
       <c r="G217" s="23" t="n">
-        <v>253385.19417</v>
+        <v>251723.96529</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>391997.93425</v>
+        <v>387374.71304</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>315403.72532</v>
+        <v>315945.6589999999</v>
       </c>
       <c r="J217" s="33" t="n">
-        <v>354275.71024</v>
+        <v>354291.71879</v>
       </c>
       <c r="K217" s="23" t="n">
         <v>460427.26918</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>709580.20549</v>
+        <v>711428.40512</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>535688.47477</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>539266.76142</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>-2421256.839</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
         <v>47469.38536</v>
       </c>
       <c r="D218" s="23" t="n">
-        <v>49166.39261000001</v>
+        <v>49166.39261</v>
       </c>
       <c r="E218" s="23" t="n">
-        <v>50977.21391999999</v>
+        <v>58610.21392</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>53087.12368</v>
+        <v>60867.12367999999</v>
       </c>
       <c r="G218" s="23" t="n">
-        <v>57691.67490999999</v>
+        <v>65638.69011</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>84990.41753000001</v>
+        <v>92751.24854</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>93665.0526</v>
+        <v>102684.87163</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>85396.17834</v>
+        <v>85663.29845</v>
       </c>
       <c r="K218" s="23" t="n">
-        <v>93267.83718</v>
+        <v>93267.83717999999</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>94918.83133</v>
+        <v>94918.83132999999</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>65050.80435</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>65316.9686</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>374213.569</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>52352.5</v>
@@ -9975,38 +10487,43 @@
         <v>56283.01725</v>
       </c>
       <c r="E219" s="22" t="n">
-        <v>59469.01626</v>
+        <v>67219.01626</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>61913.50291</v>
+        <v>69693.50291</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>65040.0469</v>
+        <v>72985.0469</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>92436.77661</v>
+        <v>100191.77661</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>101887.10901</v>
+        <v>110869.39571</v>
       </c>
       <c r="J219" s="21" t="n">
-        <v>92693.00602</v>
+        <v>92975.12612999999</v>
       </c>
       <c r="K219" s="22" t="n">
         <v>97578.90729999999</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>97492.19658</v>
+        <v>98017.19658</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>67752.52696999999</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>68668.04321999999</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>376145.519</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>5877.48999</v>
@@ -10015,7 +10532,7 @@
         <v>8099.818270000001</v>
       </c>
       <c r="E220" s="22" t="n">
-        <v>9435.7875</v>
+        <v>9552.7875</v>
       </c>
       <c r="F220" s="21" t="n">
         <v>9810.701999999999</v>
@@ -10024,29 +10541,34 @@
         <v>10585.82866</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>9428.057719999999</v>
+        <v>9428.057720000001</v>
       </c>
       <c r="I220" s="22" t="n">
-        <v>10084.17115</v>
+        <v>10095.67115</v>
       </c>
       <c r="J220" s="21" t="n">
-        <v>9634.54615</v>
+        <v>9649.54615</v>
       </c>
       <c r="K220" s="22" t="n">
         <v>6497.290730000001</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>4822.76407</v>
+        <v>5347.76407</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>4753.9223</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>5408.9223</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>7887.302</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>994.37535</v>
@@ -10061,13 +10583,13 @@
         <v>984.32277</v>
       </c>
       <c r="G221" s="22" t="n">
-        <v>3237.45667</v>
+        <v>3239.47187</v>
       </c>
       <c r="H221" s="21" t="n">
-        <v>1981.69864</v>
+        <v>1987.52965</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>1862.11474</v>
+        <v>1911.14707</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>2337.71847</v>
@@ -10079,14 +10601,19 @@
         <v>2249.39882</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>2052.19968</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>2057.84768</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>5955.352</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>0</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>5152.43153</v>
@@ -10159,14 +10691,19 @@
         <v>3331.721340000001</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>87.74134000000001</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>131.72134</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>87.742</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>0</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>3.8331</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>3.833</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>2.43153</v>
@@ -10281,12 +10828,17 @@
       <c r="M226" s="22" t="n">
         <v>83.90824000000001</v>
       </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+      <c r="N226" s="22" t="n">
+        <v>83.90900000000001</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>0</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10361,12 +10918,17 @@
       <c r="M228" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+      <c r="N228" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>5150</v>
@@ -10439,14 +11006,19 @@
         <v>43.98</v>
       </c>
       <c r="M230" s="22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+        <v>43.98</v>
+      </c>
+      <c r="N230" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>47737.47439</v>
@@ -10458,35 +11030,40 @@
         <v>20095.91437</v>
       </c>
       <c r="F231" s="33" t="n">
-        <v>22933.58169</v>
+        <v>31557.93169</v>
       </c>
       <c r="G231" s="23" t="n">
-        <v>25240.05396</v>
+        <v>33898.42308</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>29287.83365</v>
+        <v>29289.47328</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>49767.93767</v>
+        <v>49881.5269</v>
       </c>
       <c r="J231" s="33" t="n">
-        <v>38392.65974</v>
+        <v>38406.8455</v>
       </c>
       <c r="K231" s="23" t="n">
         <v>34199.59</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>36444.85629</v>
+        <v>36449.23707</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>50057.24825</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>50072.21384</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>1156222.888</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>46949.80469999999</v>
@@ -10498,35 +11075,40 @@
         <v>19161.17156</v>
       </c>
       <c r="F232" s="21" t="n">
-        <v>21458.37305</v>
+        <v>21482.72305</v>
       </c>
       <c r="G232" s="22" t="n">
-        <v>22417.46604</v>
+        <v>22474.18827</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>25814.12005</v>
+        <v>25815.75968</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>45566.95753</v>
+        <v>45614.00176000001</v>
       </c>
       <c r="J232" s="21" t="n">
-        <v>28310.56454</v>
+        <v>28312.19344</v>
       </c>
       <c r="K232" s="22" t="n">
         <v>23163.59686</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>25489.17263</v>
+        <v>25493.55341</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>39730.64948000001</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>39745.61507</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>40656.195</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>25.09267</v>
@@ -10547,7 +11129,7 @@
         <v>149.30427</v>
       </c>
       <c r="I233" s="22" t="n">
-        <v>158.14144</v>
+        <v>161.8141</v>
       </c>
       <c r="J233" s="21" t="n">
         <v>195.5331</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>151.02672</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>148.174</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>732.4224399999999</v>
@@ -10581,16 +11168,16 @@
         <v>1373.88042</v>
       </c>
       <c r="G234" s="22" t="n">
-        <v>2600.57216</v>
+        <v>2602.21905</v>
       </c>
       <c r="H234" s="21" t="n">
         <v>3045.67925</v>
       </c>
       <c r="I234" s="22" t="n">
-        <v>3636.00078</v>
+        <v>3698.87312</v>
       </c>
       <c r="J234" s="21" t="n">
-        <v>3872.59963</v>
+        <v>3885.15649</v>
       </c>
       <c r="K234" s="22" t="n">
         <v>4784.54874</v>
@@ -10601,12 +11188,17 @@
       <c r="M234" s="22" t="n">
         <v>5061.271940000001</v>
       </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+      <c r="N234" s="22" t="n">
+        <v>6062.814</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>0</v>
@@ -10641,12 +11233,17 @@
       <c r="M235" s="22" t="n">
         <v>68.81048</v>
       </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+      <c r="N235" s="22" t="n">
+        <v>68.81100000000001</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>30.15458</v>
@@ -10658,19 +11255,19 @@
         <v>14.06443</v>
       </c>
       <c r="F236" s="21" t="n">
-        <v>50.94518</v>
+        <v>8650.945180000002</v>
       </c>
       <c r="G236" s="22" t="n">
-        <v>74.88931000000001</v>
+        <v>8674.88931</v>
       </c>
       <c r="H236" s="21" t="n">
-        <v>71.48270000000001</v>
+        <v>71.48269999999999</v>
       </c>
       <c r="I236" s="22" t="n">
         <v>147.16463</v>
       </c>
       <c r="J236" s="21" t="n">
-        <v>5903.579940000001</v>
+        <v>5903.57994</v>
       </c>
       <c r="K236" s="22" t="n">
         <v>5931.43002</v>
@@ -10681,12 +11278,17 @@
       <c r="M236" s="22" t="n">
         <v>5045.48963</v>
       </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="N236" s="22" t="n">
+        <v>1109286.894</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>6845.394780000001</v>
@@ -10701,32 +11303,37 @@
         <v>14670.92332</v>
       </c>
       <c r="G237" s="23" t="n">
-        <v>72567.00078999999</v>
+        <v>72588.79393000001</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>146162.74142</v>
+        <v>146267.19284</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>47769.50257</v>
+        <v>51568.88971</v>
       </c>
       <c r="J237" s="33" t="n">
-        <v>71885.18615000001</v>
+        <v>72433.78563000001</v>
       </c>
       <c r="K237" s="23" t="n">
         <v>95005.31453999999</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>105878.20951</v>
+        <v>107552.64183</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>117694.3799</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>120807.76238</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>189236.631</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-4442.82863</v>
@@ -10735,38 +11342,43 @@
         <v>-9217.93476</v>
       </c>
       <c r="E238" s="23" t="n">
-        <v>-17020.00772</v>
+        <v>-21343.7922</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-20117.12103</v>
+        <v>-30593.8089</v>
       </c>
       <c r="G238" s="23" t="n">
-        <v>-23128.49986</v>
+        <v>-36656.7946</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-24123.54512</v>
+        <v>-34600.23299</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-45625.76375</v>
+        <v>-58900.48123</v>
       </c>
       <c r="J238" s="33" t="n">
-        <v>-76108.34628</v>
+        <v>-76917.75400999999</v>
       </c>
       <c r="K238" s="23" t="n">
-        <v>-57126.88744</v>
+        <v>-57126.88744000001</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-59817.34591999999</v>
+        <v>-59863.25244999999</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-46953.21972</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-47325.34898</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-4442816.1</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>40939.52077</v>
@@ -10775,78 +11387,88 @@
         <v>13492.94998</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>49889.66033000001</v>
+        <v>43736.75695</v>
       </c>
       <c r="F239" s="33" t="n">
-        <v>74390.93156999999</v>
+        <v>71381.54054</v>
       </c>
       <c r="G239" s="23" t="n">
-        <v>106712.53284</v>
+        <v>101952.42124</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>155674.22214</v>
+        <v>153660.76674</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>169820.7316</v>
+        <v>170704.58736</v>
       </c>
       <c r="J239" s="33" t="n">
-        <v>234422.29095</v>
+        <v>234417.80188</v>
       </c>
       <c r="K239" s="23" t="n">
         <v>294749.69356</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>528823.93294</v>
+        <v>529039.2259999999</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>349751.52065</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>350263.44424</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>301798.431</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
-        <v>45715.22318000001</v>
+        <v>45715.22318</v>
       </c>
       <c r="D240" s="22" t="n">
         <v>25465.36855</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>55295.54679000001</v>
+        <v>55295.54679</v>
       </c>
       <c r="F240" s="21" t="n">
-        <v>76809.48916</v>
+        <v>76851.705</v>
       </c>
       <c r="G240" s="22" t="n">
-        <v>108820.41561</v>
+        <v>108882.66339</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>158942.95954</v>
+        <v>158962.8447</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>197839.53726</v>
+        <v>200874.55103</v>
       </c>
       <c r="J240" s="21" t="n">
-        <v>239105.13017</v>
+        <v>239105.13019</v>
       </c>
       <c r="K240" s="22" t="n">
-        <v>300121.6771299999</v>
+        <v>300121.67713</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>537060.4715399999</v>
+        <v>537317.3771999999</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>380466.55294</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>380980.02066</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>461360.288</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>4775.70241</v>
@@ -10855,38 +11477,43 @@
         <v>11972.41857</v>
       </c>
       <c r="E241" s="22" t="n">
-        <v>5405.88646</v>
+        <v>11558.78984</v>
       </c>
       <c r="F241" s="21" t="n">
-        <v>2418.55759</v>
+        <v>5470.16446</v>
       </c>
       <c r="G241" s="22" t="n">
-        <v>2107.88277</v>
+        <v>6930.24215</v>
       </c>
       <c r="H241" s="21" t="n">
-        <v>3268.7374</v>
+        <v>5302.07796</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>28018.80566</v>
+        <v>30169.96367</v>
       </c>
       <c r="J241" s="21" t="n">
-        <v>4682.839220000001</v>
+        <v>4687.32831</v>
       </c>
       <c r="K241" s="22" t="n">
         <v>5371.98357</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>8236.5386</v>
+        <v>8278.1512</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>30715.03229</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>30716.57642</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>159561.857</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>204092.33114</v>
@@ -10895,35 +11522,38 @@
         <v>186020.44731</v>
       </c>
       <c r="E242" s="47" t="n">
-        <v>229593.98351</v>
+        <v>233067.82778</v>
       </c>
       <c r="F242" s="48" t="n">
-        <v>283102.19872</v>
+        <v>289316.32699</v>
       </c>
       <c r="G242" s="47" t="n">
-        <v>397423.81619</v>
+        <v>403063.61421</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>542788.39563</v>
+        <v>547722.83577</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>484813.25901</v>
+        <v>501795.32653</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>571446.43031</v>
+        <v>571492.96884</v>
       </c>
       <c r="K242" s="47" t="n">
         <v>765006.61604</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>1011371.9778</v>
+        <v>1014005.92226</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>962071.7719799998</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>891078.0007</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>8071806.364</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>176</v>
@@ -10951,35 +11584,38 @@
         <v>198</v>
       </c>
       <c r="E244" s="52" t="n">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F244" s="53" t="n">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="G244" s="52" t="n">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>353</v>
+        <v>368</v>
       </c>
       <c r="J244" s="53" t="n">
-        <v>416</v>
+        <v>423</v>
       </c>
       <c r="K244" s="52" t="n">
         <v>449</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>439</v>
+        <v>452</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>425</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>444</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>436</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>